--- a/data/pca/factorExposure/factorExposure_2015-04-16.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-04-16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +723,51 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.02351567054959609</v>
+        <v>0.01170594326375558</v>
       </c>
       <c r="C2">
-        <v>0.0268890918829688</v>
+        <v>-0.05409017565479753</v>
       </c>
       <c r="D2">
-        <v>-0.1282430268147623</v>
+        <v>-0.125495412676555</v>
       </c>
       <c r="E2">
-        <v>-0.007477021384136977</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.02687073327983055</v>
+      </c>
+      <c r="F2">
+        <v>-0.01521386373156903</v>
+      </c>
+      <c r="G2">
+        <v>0.06585397667314768</v>
+      </c>
+      <c r="H2">
+        <v>-0.1301005200405156</v>
+      </c>
+      <c r="I2">
+        <v>-0.05670164961020123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +781,51 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.04200840143985966</v>
+        <v>0.01729257788223993</v>
       </c>
       <c r="C4">
-        <v>0.06864941693445294</v>
+        <v>-0.1055395763449597</v>
       </c>
       <c r="D4">
-        <v>-0.1058605912009211</v>
+        <v>-0.1263674787485724</v>
       </c>
       <c r="E4">
-        <v>-0.089569074731795</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.01998883424367726</v>
+      </c>
+      <c r="F4">
+        <v>-0.09421853602132907</v>
+      </c>
+      <c r="G4">
+        <v>-0.01101013377146207</v>
+      </c>
+      <c r="H4">
+        <v>-0.04603582985247429</v>
+      </c>
+      <c r="I4">
+        <v>0.09081758530195427</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +839,341 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.02517138437902764</v>
+        <v>0.0298178909131442</v>
       </c>
       <c r="C6">
-        <v>0.01406715761479514</v>
+        <v>-0.0377106667505633</v>
       </c>
       <c r="D6">
-        <v>-0.1262474742677938</v>
+        <v>-0.1173491553326207</v>
       </c>
       <c r="E6">
-        <v>-0.05239907258345444</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.06702845152800978</v>
+      </c>
+      <c r="F6">
+        <v>-0.04171401131987946</v>
+      </c>
+      <c r="G6">
+        <v>-0.03160407673610834</v>
+      </c>
+      <c r="H6">
+        <v>-0.0251750213914993</v>
+      </c>
+      <c r="I6">
+        <v>0.006765006967937458</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.001167884909430054</v>
+        <v>0.006329505884901544</v>
       </c>
       <c r="C7">
-        <v>0.02462258077107802</v>
+        <v>-0.03911966446972188</v>
       </c>
       <c r="D7">
-        <v>-0.1079906498297953</v>
+        <v>-0.09469117432633826</v>
       </c>
       <c r="E7">
-        <v>-0.01594086876385328</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.05114732059248028</v>
+      </c>
+      <c r="F7">
+        <v>-0.002627669861064497</v>
+      </c>
+      <c r="G7">
+        <v>-0.06389306520132582</v>
+      </c>
+      <c r="H7">
+        <v>-0.05518873739472305</v>
+      </c>
+      <c r="I7">
+        <v>0.05648613810017918</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.001070254479982286</v>
+        <v>-0.007158822112774456</v>
       </c>
       <c r="C8">
-        <v>0.02719696606772929</v>
+        <v>-0.03728235037321872</v>
       </c>
       <c r="D8">
-        <v>-0.08625492822585794</v>
+        <v>-0.07273920808361185</v>
       </c>
       <c r="E8">
-        <v>-0.03605032533710942</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.03979050129559061</v>
+      </c>
+      <c r="F8">
+        <v>-0.04180618586085425</v>
+      </c>
+      <c r="G8">
+        <v>0.04273607296195202</v>
+      </c>
+      <c r="H8">
+        <v>-0.04256314325312705</v>
+      </c>
+      <c r="I8">
+        <v>0.02779720251482189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.03238169968258561</v>
+        <v>0.0122437239658287</v>
       </c>
       <c r="C9">
-        <v>0.05993240270596422</v>
+        <v>-0.08712581981272817</v>
       </c>
       <c r="D9">
-        <v>-0.1107992436459969</v>
+        <v>-0.1097461858254588</v>
       </c>
       <c r="E9">
-        <v>-0.07050966710846499</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.01785920442557518</v>
+      </c>
+      <c r="F9">
+        <v>-0.0631801656362751</v>
+      </c>
+      <c r="G9">
+        <v>-0.03840240090387263</v>
+      </c>
+      <c r="H9">
+        <v>-0.0473911161494895</v>
+      </c>
+      <c r="I9">
+        <v>0.05098170944202046</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.1756454236908543</v>
+        <v>0.239681061686979</v>
       </c>
       <c r="C10">
-        <v>-0.1701016524280522</v>
+        <v>0.08980273968792747</v>
       </c>
       <c r="D10">
-        <v>0.009136550058341875</v>
+        <v>0.005765980776264756</v>
       </c>
       <c r="E10">
-        <v>-0.04841224566817368</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.0131104649637592</v>
+      </c>
+      <c r="F10">
+        <v>-0.04730727464520389</v>
+      </c>
+      <c r="G10">
+        <v>0.01436031047124441</v>
+      </c>
+      <c r="H10">
+        <v>0.008149053275637587</v>
+      </c>
+      <c r="I10">
+        <v>-0.01613236691630877</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.01838485284202693</v>
+        <v>0.009930232992972571</v>
       </c>
       <c r="C11">
-        <v>0.04183269519253793</v>
+        <v>-0.05865667142295156</v>
       </c>
       <c r="D11">
-        <v>-0.04126719933356881</v>
+        <v>-0.03912909836986363</v>
       </c>
       <c r="E11">
-        <v>0.01551740964789806</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.02256296347927494</v>
+      </c>
+      <c r="F11">
+        <v>0.01569180733239955</v>
+      </c>
+      <c r="G11">
+        <v>-0.03535535760002517</v>
+      </c>
+      <c r="H11">
+        <v>-0.02784476425253082</v>
+      </c>
+      <c r="I11">
+        <v>0.04073139134648452</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.01701950825424914</v>
+        <v>0.009458844160829835</v>
       </c>
       <c r="C12">
-        <v>0.04290646124815749</v>
+        <v>-0.05126895001351844</v>
       </c>
       <c r="D12">
-        <v>-0.0535484508236875</v>
+        <v>-0.04460060369413246</v>
       </c>
       <c r="E12">
-        <v>0.007731263034145393</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.01670724893200693</v>
+      </c>
+      <c r="F12">
+        <v>0.01866657785223386</v>
+      </c>
+      <c r="G12">
+        <v>-0.05774357304317665</v>
+      </c>
+      <c r="H12">
+        <v>-0.04053847132389937</v>
+      </c>
+      <c r="I12">
+        <v>0.014972419659557</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.005611035359841481</v>
+        <v>-0.000163751853170768</v>
       </c>
       <c r="C13">
-        <v>0.02483975749048254</v>
+        <v>-0.05541410217646867</v>
       </c>
       <c r="D13">
-        <v>-0.1275137976747955</v>
+        <v>-0.1571570518678781</v>
       </c>
       <c r="E13">
-        <v>-0.04307749486813404</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.03396308080279343</v>
+      </c>
+      <c r="F13">
+        <v>-0.02954857384472886</v>
+      </c>
+      <c r="G13">
+        <v>-0.02989754931030036</v>
+      </c>
+      <c r="H13">
+        <v>-0.1082677180204652</v>
+      </c>
+      <c r="I13">
+        <v>-0.04413172305826316</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.004727386723587586</v>
+        <v>0.002453007669419154</v>
       </c>
       <c r="C14">
-        <v>0.01909636378305557</v>
+        <v>-0.0332918369884657</v>
       </c>
       <c r="D14">
-        <v>-0.08487241643619098</v>
+        <v>-0.09406790930598867</v>
       </c>
       <c r="E14">
-        <v>-0.01598775034886256</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.05735080001502556</v>
+      </c>
+      <c r="F14">
+        <v>-0.01996908441478749</v>
+      </c>
+      <c r="G14">
+        <v>-0.0690375264241808</v>
+      </c>
+      <c r="H14">
+        <v>-0.1320604022855629</v>
+      </c>
+      <c r="I14">
+        <v>0.02425802649441803</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>-0.003164462790515796</v>
+        <v>-0.005516939031337073</v>
       </c>
       <c r="C15">
-        <v>0.01059324810541008</v>
+        <v>-0.02762474611302431</v>
       </c>
       <c r="D15">
-        <v>-0.03618192196538304</v>
+        <v>-0.05762924244934901</v>
       </c>
       <c r="E15">
-        <v>0.003484345409659666</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>-0.01938934393193314</v>
+      </c>
+      <c r="F15">
+        <v>-0.002727396514044304</v>
+      </c>
+      <c r="G15">
+        <v>-0.01089544547796615</v>
+      </c>
+      <c r="H15">
+        <v>-0.05492895442819451</v>
+      </c>
+      <c r="I15">
+        <v>0.03159034556038481</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.01713792541236612</v>
+        <v>0.009422307110947702</v>
       </c>
       <c r="C16">
-        <v>0.03833990866858864</v>
+        <v>-0.05107984556005176</v>
       </c>
       <c r="D16">
-        <v>-0.04663927920511308</v>
+        <v>-0.04042725053413609</v>
       </c>
       <c r="E16">
-        <v>0.006298056717458445</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.02398499119792637</v>
+      </c>
+      <c r="F16">
+        <v>0.01044125707392958</v>
+      </c>
+      <c r="G16">
+        <v>-0.0425465066743717</v>
+      </c>
+      <c r="H16">
+        <v>-0.0229038944501517</v>
+      </c>
+      <c r="I16">
+        <v>0.02694854486965358</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1187,22 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1216,254 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>-0.001232145577364264</v>
+        <v>-0.003208180648359209</v>
       </c>
       <c r="C19">
-        <v>0.02028524759202559</v>
+        <v>-0.01592280815706374</v>
       </c>
       <c r="D19">
-        <v>-0.07462226638280411</v>
+        <v>-0.0508907495482351</v>
       </c>
       <c r="E19">
-        <v>-0.02683385315565758</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.007142118553030111</v>
+      </c>
+      <c r="F19">
+        <v>-0.01162904039355346</v>
+      </c>
+      <c r="G19">
+        <v>-0.009452586327383753</v>
+      </c>
+      <c r="H19">
+        <v>-0.04734370664789002</v>
+      </c>
+      <c r="I19">
+        <v>-0.003480358140308427</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.002905838282063316</v>
+        <v>0.004527891823811237</v>
       </c>
       <c r="C20">
-        <v>0.02460209569586659</v>
+        <v>-0.04178376007128868</v>
       </c>
       <c r="D20">
-        <v>-0.07574404575703184</v>
+        <v>-0.08450266883549105</v>
       </c>
       <c r="E20">
-        <v>-0.03708000106190861</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.0264560158332909</v>
+      </c>
+      <c r="F20">
+        <v>-0.02333941605165653</v>
+      </c>
+      <c r="G20">
+        <v>-0.04283524008445422</v>
+      </c>
+      <c r="H20">
+        <v>-0.03590922234597991</v>
+      </c>
+      <c r="I20">
+        <v>0.05309300927915634</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.005724259980587084</v>
+        <v>0.003503345002012219</v>
       </c>
       <c r="C21">
-        <v>0.02999266300754782</v>
+        <v>-0.04811784123369115</v>
       </c>
       <c r="D21">
-        <v>-0.1359184847466043</v>
+        <v>-0.1238580126050267</v>
       </c>
       <c r="E21">
-        <v>-0.08206248571533767</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.034408567868949</v>
+      </c>
+      <c r="F21">
+        <v>-0.08235628231821632</v>
+      </c>
+      <c r="G21">
+        <v>-0.06961944634654076</v>
+      </c>
+      <c r="H21">
+        <v>-0.1910036703045023</v>
+      </c>
+      <c r="I21">
+        <v>-0.02867636644073739</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>0.001092068548700786</v>
+        <v>-0.01394852341975176</v>
       </c>
       <c r="C22">
-        <v>0.06962787427825588</v>
+        <v>-0.08968721368121557</v>
       </c>
       <c r="D22">
-        <v>-0.3014334970262299</v>
+        <v>-0.2702191378729635</v>
       </c>
       <c r="E22">
-        <v>-0.04035336071325245</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.0699592546531419</v>
+      </c>
+      <c r="F22">
+        <v>-0.01430894623958592</v>
+      </c>
+      <c r="G22">
+        <v>0.5280618778032181</v>
+      </c>
+      <c r="H22">
+        <v>0.163736068100906</v>
+      </c>
+      <c r="I22">
+        <v>-0.05146605514999768</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>0.001510187696186755</v>
+        <v>-0.01078027704619694</v>
       </c>
       <c r="C23">
-        <v>0.06990616082273697</v>
+        <v>-0.09145727883897578</v>
       </c>
       <c r="D23">
-        <v>-0.3004864214102274</v>
+        <v>-0.2727549698054332</v>
       </c>
       <c r="E23">
-        <v>-0.04071774449332861</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.06502244144148102</v>
+      </c>
+      <c r="F23">
+        <v>-0.01745011052929429</v>
+      </c>
+      <c r="G23">
+        <v>0.5114322892415155</v>
+      </c>
+      <c r="H23">
+        <v>0.1549329918384295</v>
+      </c>
+      <c r="I23">
+        <v>-0.05072628180290828</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.02311477378691981</v>
+        <v>0.009964221787428689</v>
       </c>
       <c r="C24">
-        <v>0.05798030422617546</v>
+        <v>-0.06767865339706015</v>
       </c>
       <c r="D24">
-        <v>-0.05481001580301841</v>
+        <v>-0.04402707894341294</v>
       </c>
       <c r="E24">
-        <v>0.006011631268178651</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.03050783179483326</v>
+      </c>
+      <c r="F24">
+        <v>0.009647877050129051</v>
+      </c>
+      <c r="G24">
+        <v>-0.0447493447708928</v>
+      </c>
+      <c r="H24">
+        <v>-0.0501797592450134</v>
+      </c>
+      <c r="I24">
+        <v>0.03922446561545818</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.02367354994598716</v>
+        <v>0.01398603923027667</v>
       </c>
       <c r="C25">
-        <v>0.05010373096527883</v>
+        <v>-0.06267886494108577</v>
       </c>
       <c r="D25">
-        <v>-0.0534946944847912</v>
+        <v>-0.04735197950140389</v>
       </c>
       <c r="E25">
-        <v>-0.0002900569675218982</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.01642886817602129</v>
+      </c>
+      <c r="F25">
+        <v>0.008453591375730533</v>
+      </c>
+      <c r="G25">
+        <v>-0.03479192161280441</v>
+      </c>
+      <c r="H25">
+        <v>-0.021194046715212</v>
+      </c>
+      <c r="I25">
+        <v>0.02462783741243064</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.009856978717308184</v>
+        <v>0.01722812232117269</v>
       </c>
       <c r="C26">
-        <v>0.01476309111868332</v>
+        <v>-0.028595084931801</v>
       </c>
       <c r="D26">
-        <v>-0.0719491203096391</v>
+        <v>-0.06364437821218932</v>
       </c>
       <c r="E26">
-        <v>-0.02859455569189111</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.04147042369002207</v>
+      </c>
+      <c r="F26">
+        <v>-0.04135956251484482</v>
+      </c>
+      <c r="G26">
+        <v>-0.04345450115733319</v>
+      </c>
+      <c r="H26">
+        <v>-0.09176763626183053</v>
+      </c>
+      <c r="I26">
+        <v>0.02699358455563065</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1477,283 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.2613598972783127</v>
+        <v>0.3181569513366482</v>
       </c>
       <c r="C28">
-        <v>-0.1911889995960634</v>
+        <v>0.08661407433901092</v>
       </c>
       <c r="D28">
-        <v>-0.007188621360368337</v>
+        <v>0.02378234847422699</v>
       </c>
       <c r="E28">
-        <v>-0.04398850398418293</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.04856677874009822</v>
+      </c>
+      <c r="F28">
+        <v>-0.04528487378462347</v>
+      </c>
+      <c r="G28">
+        <v>0.05693514827874575</v>
+      </c>
+      <c r="H28">
+        <v>-0.02376805406318271</v>
+      </c>
+      <c r="I28">
+        <v>0.01086497215208767</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.000381213556937331</v>
+        <v>0.00132084989324966</v>
       </c>
       <c r="C29">
-        <v>0.022733294225486</v>
+        <v>-0.0390485284341199</v>
       </c>
       <c r="D29">
-        <v>-0.0821075632853734</v>
+        <v>-0.09692807135616513</v>
       </c>
       <c r="E29">
-        <v>-0.02637959866564443</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.06451217637258939</v>
+      </c>
+      <c r="F29">
+        <v>-0.02283585702851497</v>
+      </c>
+      <c r="G29">
+        <v>-0.09370920077762673</v>
+      </c>
+      <c r="H29">
+        <v>-0.145949345188284</v>
+      </c>
+      <c r="I29">
+        <v>0.02688686650733552</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.02394086067953051</v>
+        <v>0.01282822245813784</v>
       </c>
       <c r="C30">
-        <v>0.06756673125533111</v>
+        <v>-0.09320520215908351</v>
       </c>
       <c r="D30">
-        <v>-0.1491499716894794</v>
+        <v>-0.1317637261285163</v>
       </c>
       <c r="E30">
-        <v>-0.02900861624347067</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.05969455217447534</v>
+      </c>
+      <c r="F30">
+        <v>-0.01485374512945591</v>
+      </c>
+      <c r="G30">
+        <v>-0.009171711041562253</v>
+      </c>
+      <c r="H30">
+        <v>-0.0348513450900018</v>
+      </c>
+      <c r="I30">
+        <v>0.06111751126725536</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.03620652668846419</v>
+        <v>0.007941399104634202</v>
       </c>
       <c r="C31">
-        <v>0.08465619201618461</v>
+        <v>-0.09524674759498757</v>
       </c>
       <c r="D31">
-        <v>-0.05819317226132697</v>
+        <v>-0.0382214705740644</v>
       </c>
       <c r="E31">
-        <v>-0.01227779635929828</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.02083994120159901</v>
+      </c>
+      <c r="F31">
+        <v>-0.01234706139337944</v>
+      </c>
+      <c r="G31">
+        <v>-0.01889539472696412</v>
+      </c>
+      <c r="H31">
+        <v>-0.03700414524700717</v>
+      </c>
+      <c r="I31">
+        <v>0.02151470291416412</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.01476912768596429</v>
+        <v>0.01072807793795813</v>
       </c>
       <c r="C32">
-        <v>0.03753554427462191</v>
+        <v>-0.05128328695928538</v>
       </c>
       <c r="D32">
-        <v>-0.07665723480044942</v>
+        <v>-0.08463957302648642</v>
       </c>
       <c r="E32">
-        <v>-0.04808553046797361</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.003173627059193781</v>
+      </c>
+      <c r="F32">
+        <v>-0.04532624078953375</v>
+      </c>
+      <c r="G32">
+        <v>-0.02264221422227257</v>
+      </c>
+      <c r="H32">
+        <v>-0.0622611172221964</v>
+      </c>
+      <c r="I32">
+        <v>-0.003949549641417379</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.005964354102375234</v>
+        <v>0.004789457009780568</v>
       </c>
       <c r="C33">
-        <v>0.04114047915048898</v>
+        <v>-0.060126703085242</v>
       </c>
       <c r="D33">
-        <v>-0.1199110973177714</v>
+        <v>-0.1170304271897888</v>
       </c>
       <c r="E33">
-        <v>-0.03972642304305034</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.03227005358133828</v>
+      </c>
+      <c r="F33">
+        <v>-0.02500949005824162</v>
+      </c>
+      <c r="G33">
+        <v>-0.02767153929971315</v>
+      </c>
+      <c r="H33">
+        <v>-0.05113527503144236</v>
+      </c>
+      <c r="I33">
+        <v>0.02340371601966371</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.02072764611275755</v>
+        <v>0.007482715277165489</v>
       </c>
       <c r="C34">
-        <v>0.05940757941427036</v>
+        <v>-0.06206197274573852</v>
       </c>
       <c r="D34">
-        <v>-0.04940839851187003</v>
+        <v>-0.02461709211372409</v>
       </c>
       <c r="E34">
-        <v>0.04476270632091277</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.02866029500500466</v>
+      </c>
+      <c r="F34">
+        <v>0.04273674316368464</v>
+      </c>
+      <c r="G34">
+        <v>-0.03528851341950143</v>
+      </c>
+      <c r="H34">
+        <v>-0.02978969685160385</v>
+      </c>
+      <c r="I34">
+        <v>0.01511169526847545</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.002995410341668487</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.01229609171382442</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>-0.03289716838314075</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>-0.007037566661881565</v>
+      </c>
+      <c r="F35">
+        <v>-0.01432675904231003</v>
+      </c>
+      <c r="G35">
+        <v>-0.03863096065797145</v>
+      </c>
+      <c r="H35">
+        <v>-0.05366445370336126</v>
+      </c>
+      <c r="I35">
+        <v>0.02159807813860209</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.005889130585341303</v>
+        <v>0.0113468479765161</v>
       </c>
       <c r="C36">
-        <v>0.007703634480706976</v>
+        <v>-0.02318920569949395</v>
       </c>
       <c r="D36">
-        <v>-0.07490048615548085</v>
+        <v>-0.07246049812502584</v>
       </c>
       <c r="E36">
-        <v>-0.04721864907574423</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.03234032125489662</v>
+      </c>
+      <c r="F36">
+        <v>-0.04546453524067873</v>
+      </c>
+      <c r="G36">
+        <v>-0.02918108155734172</v>
+      </c>
+      <c r="H36">
+        <v>-0.06131804326975805</v>
+      </c>
+      <c r="I36">
+        <v>0.0227302832157505</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1767,138 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.006333189103317012</v>
+        <v>0.0104442553765492</v>
       </c>
       <c r="C38">
-        <v>0.007394136305666216</v>
+        <v>-0.02616726679785334</v>
       </c>
       <c r="D38">
-        <v>-0.0769420317994606</v>
+        <v>-0.08361756419818552</v>
       </c>
       <c r="E38">
-        <v>-0.003319016903111512</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.00988009150636596</v>
+      </c>
+      <c r="F38">
+        <v>0.001981527881122095</v>
+      </c>
+      <c r="G38">
+        <v>-0.002008195963540961</v>
+      </c>
+      <c r="H38">
+        <v>-0.06270591252565809</v>
+      </c>
+      <c r="I38">
+        <v>0.05696121881239782</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.01611114900942926</v>
+        <v>0.00425586135722791</v>
       </c>
       <c r="C39">
-        <v>0.05971789871170772</v>
+        <v>-0.07979356309436199</v>
       </c>
       <c r="D39">
-        <v>-0.0994265176246364</v>
+        <v>-0.0851794878456117</v>
       </c>
       <c r="E39">
-        <v>0.007059193008489222</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.05354138332357768</v>
+      </c>
+      <c r="F39">
+        <v>0.01354378130517064</v>
+      </c>
+      <c r="G39">
+        <v>-0.06697403434563304</v>
+      </c>
+      <c r="H39">
+        <v>-0.07267075714053407</v>
+      </c>
+      <c r="I39">
+        <v>0.04746635808689649</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.01860042952408931</v>
+        <v>0.01287722253265947</v>
       </c>
       <c r="C40">
-        <v>0.02183045724231036</v>
+        <v>-0.04042438668689292</v>
       </c>
       <c r="D40">
-        <v>-0.1063888934970995</v>
+        <v>-0.09006277497715302</v>
       </c>
       <c r="E40">
-        <v>0.01292283366782381</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.04506670873880651</v>
+      </c>
+      <c r="F40">
+        <v>0.02804650767481608</v>
+      </c>
+      <c r="G40">
+        <v>0.008290130596024202</v>
+      </c>
+      <c r="H40">
+        <v>-0.1174327883850307</v>
+      </c>
+      <c r="I40">
+        <v>-0.01119637982421943</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.009363504959900733</v>
+        <v>0.01490011234611368</v>
       </c>
       <c r="C41">
-        <v>0.004786419088314721</v>
+        <v>-0.02012309472034002</v>
       </c>
       <c r="D41">
-        <v>-0.03484484558911813</v>
+        <v>-0.0417680580195969</v>
       </c>
       <c r="E41">
-        <v>-0.02229081302451412</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.00504033729957902</v>
+      </c>
+      <c r="F41">
+        <v>-0.0218075945143293</v>
+      </c>
+      <c r="G41">
+        <v>-0.01553988627129921</v>
+      </c>
+      <c r="H41">
+        <v>-0.04174121464371372</v>
+      </c>
+      <c r="I41">
+        <v>0.02063994247155485</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1912,80 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.0003954691238573605</v>
+        <v>0.007565789147727884</v>
       </c>
       <c r="C43">
-        <v>0.004224692675751022</v>
+        <v>-0.01649397032828058</v>
       </c>
       <c r="D43">
-        <v>-0.05167522808144317</v>
+        <v>-0.05202973390700517</v>
       </c>
       <c r="E43">
-        <v>-0.01809881898167798</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.01170453022913728</v>
+      </c>
+      <c r="F43">
+        <v>-0.01990793176610328</v>
+      </c>
+      <c r="G43">
+        <v>-0.02223346008085762</v>
+      </c>
+      <c r="H43">
+        <v>-0.05020336920947035</v>
+      </c>
+      <c r="I43">
+        <v>0.0401756705208594</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.02099135958593818</v>
+        <v>0.01190005876899212</v>
       </c>
       <c r="C44">
-        <v>0.02315082152544117</v>
+        <v>-0.04808563463653164</v>
       </c>
       <c r="D44">
-        <v>-0.08571168045128905</v>
+        <v>-0.09731179235358964</v>
       </c>
       <c r="E44">
-        <v>-0.0466034033467286</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.03945520101728339</v>
+      </c>
+      <c r="F44">
+        <v>-0.03003497936567509</v>
+      </c>
+      <c r="G44">
+        <v>-0.0001932469275626615</v>
+      </c>
+      <c r="H44">
+        <v>-0.06569460602962074</v>
+      </c>
+      <c r="I44">
+        <v>0.04060060563937234</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1999,109 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.006365297501836359</v>
+        <v>-0.001129123228854723</v>
       </c>
       <c r="C46">
-        <v>0.03096423006650341</v>
+        <v>-0.04363543944180425</v>
       </c>
       <c r="D46">
-        <v>-0.07437173181615654</v>
+        <v>-0.06936303221444021</v>
       </c>
       <c r="E46">
-        <v>-0.01785566230426056</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.04609072361035096</v>
+      </c>
+      <c r="F46">
+        <v>-0.02430748009206759</v>
+      </c>
+      <c r="G46">
+        <v>-0.0536393877780852</v>
+      </c>
+      <c r="H46">
+        <v>-0.1171088375278672</v>
+      </c>
+      <c r="I46">
+        <v>0.05134994578649334</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.07710085135825591</v>
+        <v>0.03088348286107025</v>
       </c>
       <c r="C47">
-        <v>0.1074470639068933</v>
+        <v>-0.1287943780056241</v>
       </c>
       <c r="D47">
-        <v>-0.04782869701140911</v>
+        <v>-0.02219771537017198</v>
       </c>
       <c r="E47">
-        <v>-0.01283728002956335</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.008140455283757581</v>
+      </c>
+      <c r="F47">
+        <v>0.005731939655078629</v>
+      </c>
+      <c r="G47">
+        <v>-0.05670433192927166</v>
+      </c>
+      <c r="H47">
+        <v>-0.01664974304677038</v>
+      </c>
+      <c r="I47">
+        <v>0.02611164315124773</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.009102176037514934</v>
+        <v>0.01493067922598451</v>
       </c>
       <c r="C48">
-        <v>0.01789764493058192</v>
+        <v>-0.03463181545253007</v>
       </c>
       <c r="D48">
-        <v>-0.06971126452270709</v>
+        <v>-0.07513604071338698</v>
       </c>
       <c r="E48">
-        <v>-0.0468435893524931</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.02323478793889999</v>
+      </c>
+      <c r="F48">
+        <v>-0.0509659453791798</v>
+      </c>
+      <c r="G48">
+        <v>-0.04501033582655124</v>
+      </c>
+      <c r="H48">
+        <v>-0.09680186908430694</v>
+      </c>
+      <c r="I48">
+        <v>0.04836283196649557</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +2115,80 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.0324868368359847</v>
+        <v>0.01196650138850229</v>
       </c>
       <c r="C50">
-        <v>0.05834283109303589</v>
+        <v>-0.07685949706188884</v>
       </c>
       <c r="D50">
-        <v>-0.05546780092298891</v>
+        <v>-0.0479603452930264</v>
       </c>
       <c r="E50">
-        <v>-0.004689381223957284</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.01602546096027192</v>
+      </c>
+      <c r="F50">
+        <v>-0.005851192558291066</v>
+      </c>
+      <c r="G50">
+        <v>-0.005762129054155038</v>
+      </c>
+      <c r="H50">
+        <v>-0.02422381047528541</v>
+      </c>
+      <c r="I50">
+        <v>0.02708356605312499</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.0009659010734812894</v>
+        <v>-0.001253849712176791</v>
       </c>
       <c r="C51">
-        <v>0.005412653861954476</v>
+        <v>-0.01660361177214626</v>
       </c>
       <c r="D51">
-        <v>-0.05432357556505781</v>
+        <v>-0.05458520823879754</v>
       </c>
       <c r="E51">
-        <v>-0.01843129326295864</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.04008507383993658</v>
+      </c>
+      <c r="F51">
+        <v>-0.03370445460546117</v>
+      </c>
+      <c r="G51">
+        <v>-0.008967500633991737</v>
+      </c>
+      <c r="H51">
+        <v>-0.07001839926573994</v>
+      </c>
+      <c r="I51">
+        <v>0.005316817373336964</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2202,138 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.108549469405789</v>
+        <v>0.05321304055540452</v>
       </c>
       <c r="C53">
-        <v>0.1252129018644631</v>
+        <v>-0.1595180303661297</v>
       </c>
       <c r="D53">
-        <v>0.003483190102407416</v>
+        <v>0.01925420700209528</v>
       </c>
       <c r="E53">
-        <v>-0.04353800521638555</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.02519618398131988</v>
+      </c>
+      <c r="F53">
+        <v>-0.04608808755014914</v>
+      </c>
+      <c r="G53">
+        <v>-0.009454331677860597</v>
+      </c>
+      <c r="H53">
+        <v>-0.008678615987394321</v>
+      </c>
+      <c r="I53">
+        <v>0.01425642220163085</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.009766263204681248</v>
+        <v>0.01042971648469714</v>
       </c>
       <c r="C54">
-        <v>0.02266862855654164</v>
+        <v>-0.03951997988837016</v>
       </c>
       <c r="D54">
-        <v>-0.08399906032977301</v>
+        <v>-0.07746813159429188</v>
       </c>
       <c r="E54">
-        <v>-0.004586856998616187</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.02231649337493095</v>
+      </c>
+      <c r="F54">
+        <v>0.000561096815312858</v>
+      </c>
+      <c r="G54">
+        <v>-0.0234088367897956</v>
+      </c>
+      <c r="H54">
+        <v>-0.07081023559580113</v>
+      </c>
+      <c r="I54">
+        <v>0.05205882367293877</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.09326537553983426</v>
+        <v>0.03975859222850142</v>
       </c>
       <c r="C55">
-        <v>0.1075232015468126</v>
+        <v>-0.131076372012637</v>
       </c>
       <c r="D55">
-        <v>-0.006023455436081326</v>
+        <v>0.0346270685168668</v>
       </c>
       <c r="E55">
-        <v>-0.002368624659340095</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.008884965430979729</v>
+      </c>
+      <c r="F55">
+        <v>-0.007061508014215278</v>
+      </c>
+      <c r="G55">
+        <v>-0.002821564339074335</v>
+      </c>
+      <c r="H55">
+        <v>-0.005131323012053173</v>
+      </c>
+      <c r="I55">
+        <v>-0.007927523819348307</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1341453425080258</v>
+        <v>0.05444919742103971</v>
       </c>
       <c r="C56">
-        <v>0.1462538595840372</v>
+        <v>-0.191240764645081</v>
       </c>
       <c r="D56">
-        <v>-0.0078910475903918</v>
+        <v>0.03528891702350492</v>
       </c>
       <c r="E56">
-        <v>0.006102697222755471</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.02515250473809458</v>
+      </c>
+      <c r="F56">
+        <v>-0.009109092238960058</v>
+      </c>
+      <c r="G56">
+        <v>0.03407211909538448</v>
+      </c>
+      <c r="H56">
+        <v>-0.03107938306880441</v>
+      </c>
+      <c r="I56">
+        <v>0.002675206349402486</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2347,138 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.01156218104948788</v>
+        <v>0.002233117020722339</v>
       </c>
       <c r="C58">
-        <v>0.01358371660471254</v>
+        <v>-0.0591047086549553</v>
       </c>
       <c r="D58">
-        <v>-0.2179697982497673</v>
+        <v>-0.2856819426246243</v>
       </c>
       <c r="E58">
-        <v>-0.1049940538930115</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.03081545265755947</v>
+      </c>
+      <c r="F58">
+        <v>-0.1159571199033352</v>
+      </c>
+      <c r="G58">
+        <v>0.1671625124466977</v>
+      </c>
+      <c r="H58">
+        <v>0.003625823786164962</v>
+      </c>
+      <c r="I58">
+        <v>0.04344900217539466</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.1824646386682504</v>
+        <v>0.2538430863077285</v>
       </c>
       <c r="C59">
-        <v>-0.1428866894132277</v>
+        <v>0.05759234997462962</v>
       </c>
       <c r="D59">
-        <v>-0.0426926918799798</v>
+        <v>-0.05278610557016172</v>
       </c>
       <c r="E59">
-        <v>-0.02689232259054669</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.02293609803825924</v>
+      </c>
+      <c r="F59">
+        <v>-0.02330528324147992</v>
+      </c>
+      <c r="G59">
+        <v>0.01078829116194445</v>
+      </c>
+      <c r="H59">
+        <v>-0.01741407944165971</v>
+      </c>
+      <c r="I59">
+        <v>-0.03102278741441579</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.1806910587669832</v>
+        <v>0.1482813486010004</v>
       </c>
       <c r="C60">
-        <v>0.09933976676971529</v>
+        <v>-0.1703936740498626</v>
       </c>
       <c r="D60">
-        <v>-0.2293849917744245</v>
+        <v>-0.09502968621402733</v>
       </c>
       <c r="E60">
-        <v>0.05799097585300157</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.1474091634892983</v>
+      </c>
+      <c r="F60">
+        <v>0.1891800230426992</v>
+      </c>
+      <c r="G60">
+        <v>-0.1124531441379371</v>
+      </c>
+      <c r="H60">
+        <v>0.2943670010968292</v>
+      </c>
+      <c r="I60">
+        <v>-0.1882720845500253</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.02459875066686087</v>
+        <v>0.01100801955002857</v>
       </c>
       <c r="C61">
-        <v>0.05438850483021846</v>
+        <v>-0.07606670726095645</v>
       </c>
       <c r="D61">
-        <v>-0.0827421089279005</v>
+        <v>-0.07009807110701381</v>
       </c>
       <c r="E61">
-        <v>0.006903268424285297</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.03938503199724601</v>
+      </c>
+      <c r="F61">
+        <v>0.01878442790438403</v>
+      </c>
+      <c r="G61">
+        <v>-0.06983433309867255</v>
+      </c>
+      <c r="H61">
+        <v>-0.05412772384188898</v>
+      </c>
+      <c r="I61">
+        <v>0.03064115948653065</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2492,225 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.00697837124780942</v>
+        <v>0.008431914703083781</v>
       </c>
       <c r="C63">
-        <v>0.02439384024312285</v>
+        <v>-0.03819158468106452</v>
       </c>
       <c r="D63">
-        <v>-0.09049154613301223</v>
+        <v>-0.065992584439311</v>
       </c>
       <c r="E63">
-        <v>-0.02643668660551855</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.06015611476526931</v>
+      </c>
+      <c r="F63">
+        <v>-0.02170149440759627</v>
+      </c>
+      <c r="G63">
+        <v>-0.03812524520426993</v>
+      </c>
+      <c r="H63">
+        <v>-0.06019158994114713</v>
+      </c>
+      <c r="I63">
+        <v>0.03622689396927736</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.05656152540051656</v>
+        <v>0.01518297151924577</v>
       </c>
       <c r="C64">
-        <v>0.08722081821170792</v>
+        <v>-0.1035455240354314</v>
       </c>
       <c r="D64">
-        <v>-0.01095991633603133</v>
+        <v>-0.006623993350015753</v>
       </c>
       <c r="E64">
-        <v>-0.01579125954988646</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.02242319104427961</v>
+      </c>
+      <c r="F64">
+        <v>-0.01257699783432956</v>
+      </c>
+      <c r="G64">
+        <v>-0.04458194090468049</v>
+      </c>
+      <c r="H64">
+        <v>-0.02276932591709304</v>
+      </c>
+      <c r="I64">
+        <v>0.05094670086857254</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.02386552122841046</v>
+        <v>0.020624999117306</v>
       </c>
       <c r="C65">
-        <v>0.016479138373357</v>
+        <v>-0.0446108597181465</v>
       </c>
       <c r="D65">
-        <v>-0.1090152761417102</v>
+        <v>-0.1123322397593536</v>
       </c>
       <c r="E65">
-        <v>-0.0196065048258606</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.0502935803921742</v>
+      </c>
+      <c r="F65">
+        <v>0.006656633441174853</v>
+      </c>
+      <c r="G65">
+        <v>-0.03641726287451579</v>
+      </c>
+      <c r="H65">
+        <v>0.02101435425610113</v>
+      </c>
+      <c r="I65">
+        <v>0.03396083833109583</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.0212685098803447</v>
+        <v>0.0009501116910592104</v>
       </c>
       <c r="C66">
-        <v>0.06986027826410963</v>
+        <v>-0.09894467957549939</v>
       </c>
       <c r="D66">
-        <v>-0.1200493230950943</v>
+        <v>-0.1140364168687853</v>
       </c>
       <c r="E66">
-        <v>0.007063499246319221</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.04691145887505128</v>
+      </c>
+      <c r="F66">
+        <v>0.0147915136461819</v>
+      </c>
+      <c r="G66">
+        <v>-0.03329508572756036</v>
+      </c>
+      <c r="H66">
+        <v>-0.06016649544684949</v>
+      </c>
+      <c r="I66">
+        <v>0.04305338048115464</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.02392820624926079</v>
+        <v>0.02030753206775125</v>
       </c>
       <c r="C67">
-        <v>0.02062179481706198</v>
+        <v>-0.03700386109310024</v>
       </c>
       <c r="D67">
-        <v>-0.03902168916327773</v>
+        <v>-0.03983306869524513</v>
       </c>
       <c r="E67">
-        <v>0.02534256867033743</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.01420361362036809</v>
+      </c>
+      <c r="F67">
+        <v>0.03149052977491733</v>
+      </c>
+      <c r="G67">
+        <v>-0.017472250290739</v>
+      </c>
+      <c r="H67">
+        <v>-0.05155717666094645</v>
+      </c>
+      <c r="I67">
+        <v>0.04531512636260022</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.2052595716021671</v>
+        <v>0.2775852872768537</v>
       </c>
       <c r="C68">
-        <v>-0.153237515705675</v>
+        <v>0.06257006498704408</v>
       </c>
       <c r="D68">
-        <v>-0.03327700092953226</v>
+        <v>-0.02929438430803779</v>
       </c>
       <c r="E68">
-        <v>-0.02081284614032284</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.001341778598077919</v>
+      </c>
+      <c r="F68">
+        <v>-0.02406594658174484</v>
+      </c>
+      <c r="G68">
+        <v>0.07783691908084034</v>
+      </c>
+      <c r="H68">
+        <v>0.01229071994684231</v>
+      </c>
+      <c r="I68">
+        <v>-0.01370590004923904</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.05280319452498354</v>
+        <v>0.01461323183746321</v>
       </c>
       <c r="C69">
-        <v>0.1176095141242783</v>
+        <v>-0.1178433420455036</v>
       </c>
       <c r="D69">
-        <v>-0.0729577562729431</v>
+        <v>-0.02784286114752246</v>
       </c>
       <c r="E69">
-        <v>-0.00836353918461453</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.01270490131885917</v>
+      </c>
+      <c r="F69">
+        <v>0.01205371926800059</v>
+      </c>
+      <c r="G69">
+        <v>-0.0388888914843454</v>
+      </c>
+      <c r="H69">
+        <v>-0.0168809173199557</v>
+      </c>
+      <c r="I69">
+        <v>0.01053610711049966</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2724,747 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.2137926766812415</v>
+        <v>0.2763564484884874</v>
       </c>
       <c r="C71">
-        <v>-0.1768918864974334</v>
+        <v>0.07803865525013014</v>
       </c>
       <c r="D71">
-        <v>-0.0196317439575466</v>
+        <v>-0.01653198457232976</v>
       </c>
       <c r="E71">
-        <v>-0.009825019982184985</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.001099437263487884</v>
+      </c>
+      <c r="F71">
+        <v>-0.01483072330313271</v>
+      </c>
+      <c r="G71">
+        <v>0.02980620559033314</v>
+      </c>
+      <c r="H71">
+        <v>-0.01103524367121967</v>
+      </c>
+      <c r="I71">
+        <v>0.008490932916690412</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1023254203883677</v>
+        <v>0.05618547880269856</v>
       </c>
       <c r="C72">
-        <v>0.07538776957191656</v>
+        <v>-0.1274294930130855</v>
       </c>
       <c r="D72">
-        <v>-0.1226695373047887</v>
+        <v>-0.06199068918724188</v>
       </c>
       <c r="E72">
-        <v>0.006756014185351674</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.07182343341440166</v>
+      </c>
+      <c r="F72">
+        <v>0.02850743120149151</v>
+      </c>
+      <c r="G72">
+        <v>-0.06269392789547845</v>
+      </c>
+      <c r="H72">
+        <v>-0.01529926033652725</v>
+      </c>
+      <c r="I72">
+        <v>0.03033440123470596</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.1694278517241715</v>
+        <v>0.1382807670607871</v>
       </c>
       <c r="C73">
-        <v>0.06765050358366476</v>
+        <v>-0.1488958896789534</v>
       </c>
       <c r="D73">
-        <v>-0.2789270955293357</v>
+        <v>-0.09988887378372747</v>
       </c>
       <c r="E73">
-        <v>0.1071474869586039</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.2609306153137557</v>
+      </c>
+      <c r="F73">
+        <v>0.2715758994786723</v>
+      </c>
+      <c r="G73">
+        <v>-0.2828584941015155</v>
+      </c>
+      <c r="H73">
+        <v>0.3414595146493269</v>
+      </c>
+      <c r="I73">
+        <v>-0.1249915937440421</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.1063170384412736</v>
+        <v>0.04968182505078439</v>
       </c>
       <c r="C74">
-        <v>0.1154235135831275</v>
+        <v>-0.1443918133261394</v>
       </c>
       <c r="D74">
-        <v>0.02535167362051638</v>
+        <v>0.04506298956261094</v>
       </c>
       <c r="E74">
-        <v>-0.03459084518624179</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.008804996900320746</v>
+      </c>
+      <c r="F74">
+        <v>-0.03416177567516665</v>
+      </c>
+      <c r="G74">
+        <v>0.002569369129866243</v>
+      </c>
+      <c r="H74">
+        <v>0.02088859252239606</v>
+      </c>
+      <c r="I74">
+        <v>-0.01238884127213325</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.229695098596726</v>
+        <v>0.09899913318051823</v>
       </c>
       <c r="C75">
-        <v>0.2010021123619381</v>
+        <v>-0.2694453373933499</v>
       </c>
       <c r="D75">
-        <v>0.09539761860988584</v>
+        <v>0.131812334691721</v>
       </c>
       <c r="E75">
-        <v>0.06717576388554099</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.08999697649965545</v>
+      </c>
+      <c r="F75">
+        <v>0.03929724484204285</v>
+      </c>
+      <c r="G75">
+        <v>0.08273584916868829</v>
+      </c>
+      <c r="H75">
+        <v>-0.05085689819590598</v>
+      </c>
+      <c r="I75">
+        <v>0.06651954576882238</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.1368287280009943</v>
+        <v>0.05662887849569372</v>
       </c>
       <c r="C76">
-        <v>0.138678750593746</v>
+        <v>-0.1807556135296831</v>
       </c>
       <c r="D76">
-        <v>0.0009262540827520787</v>
+        <v>0.04867347031271374</v>
       </c>
       <c r="E76">
-        <v>0.01154908919891625</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.01778974706497819</v>
+      </c>
+      <c r="F76">
+        <v>0.001291335563501813</v>
+      </c>
+      <c r="G76">
+        <v>0.02159196839944771</v>
+      </c>
+      <c r="H76">
+        <v>-0.04269710541979987</v>
+      </c>
+      <c r="I76">
+        <v>0.02016331180690493</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.01851143874057893</v>
+        <v>3.630577674031593e-05</v>
       </c>
       <c r="C77">
-        <v>0.07017099088326927</v>
+        <v>-0.1105591152380097</v>
       </c>
       <c r="D77">
-        <v>0.02573538024984663</v>
+        <v>-0.3305261528041578</v>
       </c>
       <c r="E77">
-        <v>-0.004303885408387195</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.8520150631825796</v>
+      </c>
+      <c r="F77">
+        <v>0.1761839339510735</v>
+      </c>
+      <c r="G77">
+        <v>-0.1105950375509554</v>
+      </c>
+      <c r="H77">
+        <v>0.2055227650910199</v>
+      </c>
+      <c r="I77">
+        <v>-0.02347028350498853</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.02930050892609062</v>
+        <v>0.01684478299244768</v>
       </c>
       <c r="C78">
-        <v>0.07185151759919142</v>
+        <v>-0.09283046554373994</v>
       </c>
       <c r="D78">
-        <v>-0.150942931103686</v>
+        <v>-0.1131936997665768</v>
       </c>
       <c r="E78">
-        <v>-0.05397049492329828</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.06668314473441396</v>
+      </c>
+      <c r="F78">
+        <v>-0.04085170165387789</v>
+      </c>
+      <c r="G78">
+        <v>0.01728178462966111</v>
+      </c>
+      <c r="H78">
+        <v>-0.05804084857232975</v>
+      </c>
+      <c r="I78">
+        <v>-0.02890093903546971</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>0.1003938947945746</v>
+        <v>0.03614770118405977</v>
       </c>
       <c r="C79">
-        <v>0.1866002975503863</v>
+        <v>-0.1999291572627351</v>
       </c>
       <c r="D79">
-        <v>0.2262323449063433</v>
+        <v>0.08978372103819061</v>
       </c>
       <c r="E79">
-        <v>-0.8783479089024722</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.05668217870506206</v>
+      </c>
+      <c r="F79">
+        <v>-0.8223597303547596</v>
+      </c>
+      <c r="G79">
+        <v>-0.1817666888632964</v>
+      </c>
+      <c r="H79">
+        <v>0.3622687772658011</v>
+      </c>
+      <c r="I79">
+        <v>-0.06359494592283778</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.002940317491844455</v>
+        <v>0.004142992782531748</v>
       </c>
       <c r="C80">
-        <v>0.04497538402008766</v>
+        <v>-0.04396035155246886</v>
       </c>
       <c r="D80">
-        <v>-0.05160496550487693</v>
+        <v>-0.03895220199683807</v>
       </c>
       <c r="E80">
-        <v>-0.0001600966128267348</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.04759404603911856</v>
+      </c>
+      <c r="F80">
+        <v>0.003650712844767452</v>
+      </c>
+      <c r="G80">
+        <v>-0.01965056224314658</v>
+      </c>
+      <c r="H80">
+        <v>-0.04279095670011232</v>
+      </c>
+      <c r="I80">
+        <v>-0.08188720005341364</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1173841181729323</v>
+        <v>0.04012761686084441</v>
       </c>
       <c r="C81">
-        <v>0.1367944209205758</v>
+        <v>-0.166764107115593</v>
       </c>
       <c r="D81">
-        <v>0.08367761100871804</v>
+        <v>0.08285431689347865</v>
       </c>
       <c r="E81">
-        <v>-0.01928186753608849</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.04520012673153721</v>
+      </c>
+      <c r="F81">
+        <v>-0.05448763565904943</v>
+      </c>
+      <c r="G81">
+        <v>0.02766132773985891</v>
+      </c>
+      <c r="H81">
+        <v>-0.08666569067443865</v>
+      </c>
+      <c r="I81">
+        <v>0.008127606208832272</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>0.2465461882603509</v>
+        <v>0.08560460002064527</v>
       </c>
       <c r="C82">
-        <v>0.2956470531410854</v>
+        <v>-0.3156763460179523</v>
       </c>
       <c r="D82">
-        <v>0.1890666849066312</v>
+        <v>0.2425938106067666</v>
       </c>
       <c r="E82">
-        <v>0.1991984034631023</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.06247519585361371</v>
+      </c>
+      <c r="F82">
+        <v>0.12633195194224</v>
+      </c>
+      <c r="G82">
+        <v>0.04462980859355285</v>
+      </c>
+      <c r="H82">
+        <v>-0.1354796616702864</v>
+      </c>
+      <c r="I82">
+        <v>0.01452450774136408</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.01092038606315639</v>
+        <v>-0.01407669379602228</v>
       </c>
       <c r="C83">
-        <v>0.05257883514042378</v>
+        <v>-0.02064697592583789</v>
       </c>
       <c r="D83">
-        <v>-0.002939843068632804</v>
+        <v>-0.02336421419522291</v>
       </c>
       <c r="E83">
-        <v>-0.02959046476766812</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.08975392516540512</v>
+      </c>
+      <c r="F83">
+        <v>-0.06893620273099206</v>
+      </c>
+      <c r="G83">
+        <v>-0.01644682671868744</v>
+      </c>
+      <c r="H83">
+        <v>-0.3304299972174611</v>
+      </c>
+      <c r="I83">
+        <v>-0.8723894397760874</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>-0.0003127677468402207</v>
+        <v>-0.004236828558411757</v>
       </c>
       <c r="C84">
-        <v>-0.001794249731517682</v>
+        <v>-0.01713184838358634</v>
       </c>
       <c r="D84">
-        <v>-0.0004638357994834896</v>
+        <v>-0.04159619532848892</v>
       </c>
       <c r="E84">
-        <v>0.002197608474124947</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>-0.001360464578741578</v>
+      </c>
+      <c r="F84">
+        <v>-0.02552847233034017</v>
+      </c>
+      <c r="G84">
+        <v>0.0319614906578714</v>
+      </c>
+      <c r="H84">
+        <v>-0.04845145184691802</v>
+      </c>
+      <c r="I84">
+        <v>0.06755580919155815</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.1402984742831739</v>
+        <v>0.05439619366873066</v>
       </c>
       <c r="C85">
-        <v>0.1421498121656385</v>
+        <v>-0.1827523560128786</v>
       </c>
       <c r="D85">
-        <v>0.05667839190026403</v>
+        <v>0.10287918604346</v>
       </c>
       <c r="E85">
-        <v>-0.03629858148094314</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.001324093256775869</v>
+      </c>
+      <c r="F85">
+        <v>-0.06528396136351282</v>
+      </c>
+      <c r="G85">
+        <v>0.026175340468747</v>
+      </c>
+      <c r="H85">
+        <v>0.001962626524756861</v>
+      </c>
+      <c r="I85">
+        <v>0.009047277889188734</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.01790880324380552</v>
+        <v>0.01471010056035021</v>
       </c>
       <c r="C86">
-        <v>0.0104047427285554</v>
+        <v>-0.0399563403694917</v>
       </c>
       <c r="D86">
-        <v>-0.09409734497872807</v>
+        <v>-0.1124471818814144</v>
       </c>
       <c r="E86">
-        <v>-0.02205322080530229</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.02034280401313359</v>
+      </c>
+      <c r="F86">
+        <v>-0.01517806357036103</v>
+      </c>
+      <c r="G86">
+        <v>-0.01634017416227498</v>
+      </c>
+      <c r="H86">
+        <v>0.01787776186476538</v>
+      </c>
+      <c r="I86">
+        <v>0.02528866883023025</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.02137313224674018</v>
+        <v>0.01129754075453181</v>
       </c>
       <c r="C87">
-        <v>0.02808287921389971</v>
+        <v>-0.0627755141608836</v>
       </c>
       <c r="D87">
-        <v>-0.1227563523173752</v>
+        <v>-0.135162866360156</v>
       </c>
       <c r="E87">
-        <v>-0.04688067723772728</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.01595490281391265</v>
+      </c>
+      <c r="F87">
+        <v>-0.03643062995359142</v>
+      </c>
+      <c r="G87">
+        <v>0.02429757884284551</v>
+      </c>
+      <c r="H87">
+        <v>-0.08694761592195714</v>
+      </c>
+      <c r="I87">
+        <v>0.004979469691692941</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.051027835218901</v>
+        <v>0.03275502037489226</v>
       </c>
       <c r="C88">
-        <v>0.04400755851879986</v>
+        <v>-0.06956930079584253</v>
       </c>
       <c r="D88">
-        <v>-0.01930691792254289</v>
+        <v>-0.01908487508062788</v>
       </c>
       <c r="E88">
-        <v>-0.02798815183216498</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.02702490019871266</v>
+      </c>
+      <c r="F88">
+        <v>-0.01944411126851665</v>
+      </c>
+      <c r="G88">
+        <v>-0.02181620028806518</v>
+      </c>
+      <c r="H88">
+        <v>-0.002435720101257248</v>
+      </c>
+      <c r="I88">
+        <v>0.02214899753174104</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.3227177399314806</v>
+        <v>0.4086052324523367</v>
       </c>
       <c r="C89">
-        <v>-0.3214588118185298</v>
+        <v>0.1502044039897205</v>
       </c>
       <c r="D89">
-        <v>-0.009605225744339503</v>
+        <v>-0.03515291198559438</v>
       </c>
       <c r="E89">
-        <v>-0.08038022320319393</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.04675171507581114</v>
+      </c>
+      <c r="F89">
+        <v>-0.05225739829544455</v>
+      </c>
+      <c r="G89">
+        <v>-0.03680020669814033</v>
+      </c>
+      <c r="H89">
+        <v>-0.1556925890456788</v>
+      </c>
+      <c r="I89">
+        <v>-0.0477857801705723</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.2588247271590751</v>
+        <v>0.3210766321264143</v>
       </c>
       <c r="C90">
-        <v>-0.2378648803550754</v>
+        <v>0.1024213220461385</v>
       </c>
       <c r="D90">
-        <v>-0.05358569852442438</v>
+        <v>-0.03328131317412548</v>
       </c>
       <c r="E90">
-        <v>0.01026692118360264</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.007074199395733433</v>
+      </c>
+      <c r="F90">
+        <v>0.009749449916370289</v>
+      </c>
+      <c r="G90">
+        <v>0.06093862855621774</v>
+      </c>
+      <c r="H90">
+        <v>-0.03240371325430302</v>
+      </c>
+      <c r="I90">
+        <v>-0.01544099528366701</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.1530520552276864</v>
+        <v>0.06475224456538717</v>
       </c>
       <c r="C91">
-        <v>0.1876317523061221</v>
+        <v>-0.2068651947072203</v>
       </c>
       <c r="D91">
-        <v>0.1017928595069221</v>
+        <v>0.1103104777807551</v>
       </c>
       <c r="E91">
-        <v>-0.05612951820911472</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.05853845490949228</v>
+      </c>
+      <c r="F91">
+        <v>-0.06227160668188077</v>
+      </c>
+      <c r="G91">
+        <v>0.0103294501567031</v>
+      </c>
+      <c r="H91">
+        <v>-0.0004588359894630382</v>
+      </c>
+      <c r="I91">
+        <v>-0.02849361108906793</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.243447873435169</v>
+        <v>0.3413015584932927</v>
       </c>
       <c r="C92">
-        <v>-0.2614846011882999</v>
+        <v>0.1365607567980268</v>
       </c>
       <c r="D92">
-        <v>0.0659818516288545</v>
+        <v>-0.009433270945085268</v>
       </c>
       <c r="E92">
-        <v>-0.01651219335695607</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.0687704629336591</v>
+      </c>
+      <c r="F92">
+        <v>-0.036311519348798</v>
+      </c>
+      <c r="G92">
+        <v>0.02255983321152644</v>
+      </c>
+      <c r="H92">
+        <v>-0.01468358098124376</v>
+      </c>
+      <c r="I92">
+        <v>0.1398239724063475</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.2852019105027398</v>
+        <v>0.3364954569027953</v>
       </c>
       <c r="C93">
-        <v>-0.2461647472848878</v>
+        <v>0.1078495879485397</v>
       </c>
       <c r="D93">
-        <v>-0.007516234239165727</v>
+        <v>0.01826431777761502</v>
       </c>
       <c r="E93">
-        <v>-0.01475930493835425</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.02333454146171995</v>
+      </c>
+      <c r="F93">
+        <v>-0.009328132849524041</v>
+      </c>
+      <c r="G93">
+        <v>-0.004709092252801357</v>
+      </c>
+      <c r="H93">
+        <v>0.03826059451912263</v>
+      </c>
+      <c r="I93">
+        <v>0.02579407339170836</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.2897567581358358</v>
+        <v>0.1215838083931063</v>
       </c>
       <c r="C94">
-        <v>0.27238632931215</v>
+        <v>-0.3459592931296498</v>
       </c>
       <c r="D94">
-        <v>0.286873057627544</v>
+        <v>0.3637038508893594</v>
       </c>
       <c r="E94">
-        <v>0.2483311013427087</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.05775230338933816</v>
+      </c>
+      <c r="F94">
+        <v>0.130891338318711</v>
+      </c>
+      <c r="G94">
+        <v>0.2974264819552346</v>
+      </c>
+      <c r="H94">
+        <v>-0.1055686708939874</v>
+      </c>
+      <c r="I94">
+        <v>0.04206483454695693</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.01209992488386595</v>
+        <v>0.01302539403375995</v>
       </c>
       <c r="C95">
-        <v>0.04339171531877579</v>
+        <v>-0.0669556998041396</v>
       </c>
       <c r="D95">
-        <v>0.03134561024866734</v>
+        <v>-0.08659592210561225</v>
       </c>
       <c r="E95">
-        <v>0.02036215578979586</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.1528251765351896</v>
+      </c>
+      <c r="F95">
+        <v>0.04268102176593346</v>
+      </c>
+      <c r="G95">
+        <v>-0.2146157176934467</v>
+      </c>
+      <c r="H95">
+        <v>-0.2107058806727705</v>
+      </c>
+      <c r="I95">
+        <v>0.2003184325118079</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3478,80 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.001698421595867757</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.0009927170826795574</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>-0.0008743099196426184</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>-0.003569014944951314</v>
+      </c>
+      <c r="F97">
+        <v>-0.0003942940469683685</v>
+      </c>
+      <c r="G97">
+        <v>-0.000212917822526037</v>
+      </c>
+      <c r="H97">
+        <v>-0.00243629894549349</v>
+      </c>
+      <c r="I97">
+        <v>0.006546152133505814</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.1477935450789551</v>
+        <v>0.1206670066712852</v>
       </c>
       <c r="C98">
-        <v>0.08694855295474098</v>
+        <v>-0.1520494924385923</v>
       </c>
       <c r="D98">
-        <v>-0.1840964282193638</v>
+        <v>-0.06792790593488936</v>
       </c>
       <c r="E98">
-        <v>0.09759118027783659</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.1812471436497132</v>
+      </c>
+      <c r="F98">
+        <v>0.2180037181753413</v>
+      </c>
+      <c r="G98">
+        <v>-0.1925015816652031</v>
+      </c>
+      <c r="H98">
+        <v>0.2815901068228761</v>
+      </c>
+      <c r="I98">
+        <v>-0.1494947873284476</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3565,22 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3594,80 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.001113378922989079</v>
+        <v>0.001794748060988268</v>
       </c>
       <c r="C101">
-        <v>0.02198690458636868</v>
+        <v>-0.03828928786761684</v>
       </c>
       <c r="D101">
-        <v>-0.08166373495957333</v>
+        <v>-0.09615532727850618</v>
       </c>
       <c r="E101">
-        <v>-0.02709181425963345</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.06380516303953016</v>
+      </c>
+      <c r="F101">
+        <v>-0.0230282742937968</v>
+      </c>
+      <c r="G101">
+        <v>-0.0929350974316967</v>
+      </c>
+      <c r="H101">
+        <v>-0.1465503384252365</v>
+      </c>
+      <c r="I101">
+        <v>0.02701695884819353</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.1042768857569278</v>
+        <v>0.02686430335232843</v>
       </c>
       <c r="C102">
-        <v>0.1579017861679191</v>
+        <v>-0.1463465522785744</v>
       </c>
       <c r="D102">
-        <v>0.0550424047255795</v>
+        <v>0.1000362240885949</v>
       </c>
       <c r="E102">
-        <v>0.0840281975643377</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.03694589150466276</v>
+      </c>
+      <c r="F102">
+        <v>0.07300478553822881</v>
+      </c>
+      <c r="G102">
+        <v>-0.02016567313847814</v>
+      </c>
+      <c r="H102">
+        <v>-0.0241989856279765</v>
+      </c>
+      <c r="I102">
+        <v>-0.01732127567386019</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3681,22 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3708,18 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
